--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>admin</t>
   </si>
@@ -190,51 +190,63 @@
     <t>发布者用户ID</t>
   </si>
   <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+  </si>
+  <si>
+    <t>是否审核</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>praiseCount</t>
+  </si>
+  <si>
+    <t>MEDIUMINT(8)</t>
+  </si>
+  <si>
+    <t>赞数击数</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>存入序列化数据</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>CHAR(240)</t>
+  </si>
+  <si>
+    <t>副标题</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>CHAR(66)</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
     <t>titlePhoto</t>
   </si>
   <si>
     <t>标题图片</t>
   </si>
   <si>
-    <t>checked</t>
-  </si>
-  <si>
-    <t>TINYINT(1)</t>
-  </si>
-  <si>
-    <t>是否审核</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>praiseCount</t>
-  </si>
-  <si>
-    <t>MEDIUMINT(8)</t>
-  </si>
-  <si>
-    <t>赞数击数</t>
-  </si>
-  <si>
-    <t>keyboard</t>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-  </si>
-  <si>
-    <t>关键字</t>
-  </si>
-  <si>
-    <t>多个逗号隔开（英文逗号）</t>
-  </si>
-  <si>
-    <t>subtitle</t>
-  </si>
-  <si>
-    <t>副标题</t>
-  </si>
-  <si>
     <t>news_content 新闻</t>
   </si>
   <si>
@@ -251,6 +263,30 @@
   </si>
   <si>
     <t>新闻内容</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>VARCHAR(120)</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>存入逗号 meta标签使用</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>VARCHAR(240)</t>
+  </si>
+  <si>
+    <t>内容摘要</t>
+  </si>
+  <si>
+    <t>meta标签使用</t>
   </si>
 </sst>
 </file>
@@ -258,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -315,22 +351,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,7 +387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +401,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -364,8 +447,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -373,14 +493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,83 +506,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -486,13 +522,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,37 +654,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,121 +684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,17 +731,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,8 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,35 +781,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,147 +802,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +988,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1366,150 +1405,150 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="24.625" style="8"/>
-    <col min="5" max="1025" width="24.625" style="13"/>
+    <col min="1" max="4" width="24.625" style="9"/>
+    <col min="5" max="1025" width="24.625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1521,179 +1560,179 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="24.625" style="7"/>
-    <col min="4" max="4" width="35.275" style="7"/>
+    <col min="1" max="3" width="24.625" style="8"/>
+    <col min="4" max="4" width="35.275" style="8"/>
     <col min="5" max="1025" width="24.625"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1701,7 +1740,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1710,10 +1749,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1807,82 +1846,91 @@
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1904,24 +1952,52 @@
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +2005,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A15:D15"/>
   </mergeCells>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -294,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -348,6 +348,11 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -359,13 +364,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,46 +427,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,22 +457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -454,29 +464,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -484,18 +471,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,181 +528,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,8 +748,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -758,8 +760,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,34 +808,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,140 +833,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1751,8 +1751,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1914,7 +1914,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -1923,9 +1923,6 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>admin</t>
   </si>
@@ -154,7 +154,7 @@
     <t>summary</t>
   </si>
   <si>
-    <t>总数</t>
+    <t>文章的总数</t>
   </si>
   <si>
     <t>folder</t>
@@ -199,6 +199,9 @@
     <t>是否审核</t>
   </si>
   <si>
+    <t>0 未通过审核 1 等待审核 999 审核</t>
+  </si>
+  <si>
     <t>sort</t>
   </si>
   <si>
@@ -245,6 +248,24 @@
   </si>
   <si>
     <t>标题图片</t>
+  </si>
+  <si>
+    <t>pinyin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标题拼音 </t>
+  </si>
+  <si>
+    <t>用于生成文件时使用</t>
+  </si>
+  <si>
+    <t>isdel</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>0正常 1删除</t>
   </si>
   <si>
     <t>news_content 新闻</t>
@@ -294,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -364,6 +385,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,67 +476,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -449,6 +491,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -458,21 +507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,27 +520,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -528,37 +549,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,55 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,73 +723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,10 +769,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -760,7 +779,48 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -789,177 +849,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1560,7 +1581,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
@@ -1749,16 +1770,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="24.625" style="1"/>
-    <col min="4" max="4" width="28.5416666666667" style="1"/>
+    <col min="4" max="4" width="34.125" style="1" customWidth="1"/>
     <col min="5" max="1025" width="24.625" style="2"/>
   </cols>
   <sheetData>
@@ -1842,7 +1863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1852,10 +1873,13 @@
       <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -1866,124 +1890,127 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
@@ -1993,14 +2020,39 @@
       <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13320" tabRatio="474" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="13320" tabRatio="474" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
     <sheet name="classify" sheetId="2" r:id="rId2"/>
     <sheet name="news" sheetId="3" r:id="rId3"/>
+    <sheet name="img" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>admin</t>
   </si>
@@ -308,6 +309,18 @@
   </si>
   <si>
     <t>meta标签使用</t>
+  </si>
+  <si>
+    <t>Images 新闻配置表</t>
+  </si>
+  <si>
+    <t>newId</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>图片</t>
   </si>
 </sst>
 </file>
@@ -315,9 +328,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -375,6 +388,44 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -385,16 +436,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,91 +512,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,26 +535,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -543,25 +556,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,151 +682,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +765,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,6 +793,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -799,192 +862,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -993,22 +1006,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1772,280 +1785,280 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="24.625" style="1"/>
-    <col min="4" max="4" width="34.125" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="24.625" style="2"/>
+    <col min="1" max="3" width="24.625" style="3"/>
+    <col min="4" max="4" width="34.125" style="3" customWidth="1"/>
+    <col min="5" max="1025" width="24.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F10"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2058,4 +2071,147 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="5" max="16384" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13320" tabRatio="474" activeTab="3"/>
+    <workbookView windowWidth="19095" windowHeight="7860" tabRatio="474" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -2079,7 +2079,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>admin</t>
   </si>
@@ -317,6 +317,17 @@
     <t>special_config 新闻专题</t>
   </si>
   <si>
+    <t>CHAR(32)</t>
+  </si>
+  <si>
+    <t>编号 (uuid)</t>
+  </si>
+  <si>
+    <t>PK  因为程序在功能上复合性简单的通过
+系统生成编号开发过于复杂。通过前台生成
+唯一码的方式将会容易操作</t>
+  </si>
+  <si>
     <t>specialName</t>
   </si>
   <si>
@@ -338,10 +349,13 @@
     <t>special_classify 新闻专题栏目</t>
   </si>
   <si>
+    <t>迭代编号(uuid)</t>
+  </si>
+  <si>
     <t>specialId</t>
   </si>
   <si>
-    <t>专题编号</t>
+    <t>专题编号(uuid)</t>
   </si>
   <si>
     <t xml:space="preserve">classifyName
@@ -355,7 +369,14 @@
 </t>
   </si>
   <si>
-    <t>专题模板</t>
+    <t>专题列表模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">templateContent
+</t>
+  </si>
+  <si>
+    <t>专题内容模板</t>
   </si>
   <si>
     <t>special_content 新闻专题内容</t>
@@ -364,7 +385,7 @@
     <t>specialClassifyId</t>
   </si>
   <si>
-    <t>栏目编号</t>
+    <t>栏目编号(uuid)</t>
   </si>
   <si>
     <t>newsIds</t>
@@ -387,8 +408,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -463,15 +484,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,9 +500,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,16 +536,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -524,9 +560,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,59 +577,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,7 +591,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,6 +614,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,7 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,19 +667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,19 +697,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,97 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +799,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +854,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,6 +907,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -878,50 +938,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,142 +960,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,6 +1120,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1106,13 +1130,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1121,9 +1148,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1526,145 +1550,145 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="40.625" style="17" customWidth="1"/>
-    <col min="5" max="1025" width="40.625" style="18" customWidth="1"/>
+    <col min="1" max="4" width="40.625" style="18" customWidth="1"/>
+    <col min="5" max="1025" width="40.625" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1682,34 +1706,34 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="40.625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="40.625" style="13" customWidth="1"/>
+    <col min="1" max="4" width="40.625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="40.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1720,7 +1744,7 @@
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1734,10 +1758,10 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1748,10 +1772,10 @@
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1765,7 +1789,7 @@
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
@@ -1777,7 +1801,7 @@
       <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="5" t="s">
@@ -1789,7 +1813,7 @@
       <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="5" t="s">
@@ -1801,7 +1825,7 @@
       <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="5" t="s">
@@ -1813,7 +1837,7 @@
       <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="5" t="s">
@@ -1825,7 +1849,7 @@
       <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1839,7 +1863,7 @@
       <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1853,7 +1877,7 @@
       <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1870,10 +1894,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD46"/>
+  <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.625" defaultRowHeight="25" customHeight="1"/>
@@ -2203,29 +2227,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
+    <row r="25" ht="47.25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>53</v>
@@ -2247,13 +2271,13 @@
     </row>
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>53</v>
@@ -2303,7 +2327,7 @@
     </row>
     <row r="32" customHeight="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2323,95 +2347,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="8" t="s">
+    <row r="34" ht="42.75" spans="1:4">
+      <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>8</v>
+      <c r="B34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="B35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>100</v>
+      <c r="A37" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>67</v>
+      <c r="A39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:16384">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="AML40" s="6"/>
       <c r="AMM40" s="6"/>
       <c r="AMN40" s="6"/>
@@ -17773,73 +17805,96 @@
       <c r="XFD40" s="6"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+    <row r="42" customHeight="1" spans="2:2">
+      <c r="B42" s="5"/>
     </row>
-    <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="2" t="s">
+    <row r="43" customHeight="1" spans="2:2">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" customHeight="1" spans="2:2">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" customHeight="1" spans="2:2">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" customHeight="1" spans="2:2">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:4">
+      <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="3" t="s">
+    <row r="49" customHeight="1" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="8" t="s">
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="3" t="s">
+    <row r="51" customHeight="1" spans="1:4">
+      <c r="A51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>53</v>
+      <c r="D51" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -17848,7 +17903,7 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -17872,7 +17927,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17906,7 +17961,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -17918,13 +17973,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3"/>
     </row>

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
   <si>
     <t xml:space="preserve">admin</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t xml:space="preserve">newsIds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新闻标题</t>
   </si>
   <si>
     <t xml:space="preserve">Images 新闻配置表</t>
@@ -421,7 +427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -448,7 +454,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -462,21 +467,18 @@
       <color rgb="FFEEECE1"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -484,14 +486,12 @@
       <color rgb="FFEEECE1"/>
       <name val="Microsoft YaHei"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -499,26 +499,17 @@
       <color rgb="FFEEECE1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -536,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -547,6 +538,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -590,6 +588,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -671,10 +673,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -779,102 +777,105 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="44.4473684210526"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="44.4473684210526"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="48.5087719298246"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="48.5087719298246"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -898,178 +899,178 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="6" width="44.4473684210526"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="7" width="44.4473684210526"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="7" width="48.5087719298246"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="8" width="48.5087719298246"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1092,595 +1093,593 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D27" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="topRight" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="11" width="44.4473684210526"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="12" width="48.5087719298246"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="F1" s="0"/>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="0"/>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="0"/>
       <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="0"/>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="0"/>
       <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="0"/>
       <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="0"/>
       <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="0"/>
       <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="0"/>
       <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="D10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="17"/>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="A31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="21" t="n">
+      <c r="D35" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="0" t="s">
@@ -1690,89 +1689,100 @@
     </row>
     <row r="43" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="0"/>
       <c r="D43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="0"/>
       <c r="D44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D52" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1807,12 +1817,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="44.4473684210526"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="48.5087719298246"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1846,7 +1856,7 @@
     </row>
     <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>6</v>
@@ -1858,13 +1868,13 @@
     </row>
     <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" s="27"/>
     </row>
@@ -1872,7 +1882,7 @@
       <c r="A6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -1900,7 +1910,7 @@
     </row>
     <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="27"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
     </row>
@@ -1912,19 +1922,19 @@
     </row>
     <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="27"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="27"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
     </row>

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27480" windowHeight="13305" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="27480" windowHeight="13305" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -429,12 +429,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,23 +457,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -490,16 +473,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFEEECE1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -510,6 +485,71 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -517,22 +557,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +574,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -556,12 +583,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -569,9 +597,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,35 +627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -627,44 +640,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -693,175 +668,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,6 +874,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,11 +926,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,17 +950,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,161 +975,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -1159,86 +1134,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1632,111 +1574,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="48.5111111111111" style="26"/>
-    <col min="5" max="1025" width="48.5111111111111" style="27"/>
+    <col min="1" max="4" width="48.5111111111111" style="17"/>
+    <col min="5" max="1025" width="48.5111111111111" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1747,179 +1689,179 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="48.5111111111111" style="5"/>
-    <col min="5" max="1025" width="48.5111111111111" style="22"/>
+    <col min="1" max="4" width="48.5111111111111" style="3"/>
+    <col min="5" max="1025" width="48.5111111111111" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1927,7 +1869,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1938,709 +1880,705 @@
   <sheetPr/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="48.5111111111111" style="6"/>
-    <col min="5" max="1025" width="48.5111111111111" style="7"/>
+    <col min="1" max="4" width="48.5111111111111" style="3"/>
+    <col min="5" max="1025" width="48.5111111111111" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="I1"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2"/>
       <c r="I2"/>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F3"/>
       <c r="I3"/>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F4"/>
       <c r="I4"/>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F5"/>
       <c r="I5"/>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F6"/>
       <c r="I6"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F7"/>
       <c r="I7"/>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F8"/>
       <c r="I8"/>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F9"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="14"/>
       <c r="I11"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" ht="49.5" spans="1:4">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" ht="47.25" spans="1:4">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="37" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A44" s="20"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="A44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A46" s="20"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="A46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A47" s="20"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="A47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" ht="24.95" customHeight="1" spans="1:3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="53" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2652,7 +2590,7 @@
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A48:D48"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2722,7 +2660,7 @@
       <c r="A5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2734,7 +2672,7 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2762,7 +2700,7 @@
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:4">
       <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
@@ -2774,19 +2712,19 @@
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:4">
       <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
       <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:4">
       <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
@@ -2794,7 +2732,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27480" windowHeight="13305" tabRatio="993" activeTab="1"/>
+    <workbookView windowWidth="27480" windowHeight="13305" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
     <sheet name="classify" sheetId="2" r:id="rId2"/>
     <sheet name="news" sheetId="3" r:id="rId3"/>
     <sheet name="img" sheetId="4" r:id="rId4"/>
+    <sheet name="activity" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
   <si>
     <t>admin</t>
   </si>
@@ -391,7 +392,7 @@
     <t>FLOAT(11.4)</t>
   </si>
   <si>
-    <t>时间戳（毫米）</t>
+    <t>时间戳（毫秒）</t>
   </si>
   <si>
     <t>special_content 新闻专题内容</t>
@@ -422,6 +423,192 @@
   </si>
   <si>
     <t>图片</t>
+  </si>
+  <si>
+    <t>activity_content 活动内容表</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>char(250)</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>备注2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>备注3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>备注4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>备注5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>备注6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>备注7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>备注8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>备注9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>备注10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>备注11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>备注12</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>备注13</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>备注14</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>备注15</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>备注16</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>备注17</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>备注18</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>备注19</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>备注20</t>
+  </si>
+  <si>
+    <t>activity_config 活动配置表</t>
+  </si>
+  <si>
+    <t>activityId</t>
+  </si>
+  <si>
+    <t>activityValue</t>
+  </si>
+  <si>
+    <t>活动字段价值</t>
+  </si>
+  <si>
+    <t>activityKey</t>
+  </si>
+  <si>
+    <t>活动字段关键</t>
+  </si>
+  <si>
+    <t>activityInput</t>
+  </si>
+  <si>
+    <t>活动输入</t>
+  </si>
+  <si>
+    <t>activitystate</t>
+  </si>
+  <si>
+    <t>varchar(1200)</t>
+  </si>
+  <si>
+    <t>活动状态</t>
+  </si>
+  <si>
+    <t>activity 活动配置表</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>activityTitle</t>
+  </si>
+  <si>
+    <t>活动名称</t>
+  </si>
+  <si>
+    <t>activityContent</t>
+  </si>
+  <si>
+    <t>活动内容</t>
+  </si>
+  <si>
+    <t>发布时间</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>结束时间</t>
   </si>
 </sst>
 </file>
@@ -429,16 +616,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -463,18 +655,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -486,10 +666,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -499,8 +684,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,9 +721,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,41 +798,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -573,17 +806,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,22 +815,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,26 +828,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -662,13 +854,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,19 +914,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,13 +998,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,126 +1028,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -868,12 +1060,53 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,32 +1129,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,11 +1168,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,21 +1193,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -983,171 +1201,216 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1155,32 +1418,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1574,105 +1828,105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="48.5111111111111" style="17"/>
-    <col min="5" max="1025" width="48.5111111111111" style="18"/>
+    <col min="1" max="4" width="48.5111111111111" style="30"/>
+    <col min="5" max="1025" width="48.5111111111111" style="31"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1689,179 +1943,179 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="48.5111111111111" style="3"/>
-    <col min="5" max="1025" width="48.5111111111111" style="15"/>
+    <col min="1" max="4" width="48.5111111111111" style="6"/>
+    <col min="5" max="1025" width="48.5111111111111" style="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1880,705 +2134,705 @@
   <sheetPr/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="48.5111111111111" style="3"/>
-    <col min="5" max="1025" width="48.5111111111111" style="5"/>
+    <col min="1" max="4" width="48.5111111111111" style="6"/>
+    <col min="5" max="1025" width="48.5111111111111" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="F1"/>
       <c r="I1"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2"/>
       <c r="I2"/>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3"/>
       <c r="I3"/>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F4"/>
       <c r="I4"/>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F5"/>
       <c r="I5"/>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F6"/>
       <c r="I6"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F7"/>
       <c r="I7"/>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F8"/>
       <c r="I8"/>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F9"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="28"/>
       <c r="I11"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:9">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" ht="49.5" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" ht="47.25" spans="1:4">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="37" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="13"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="A44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="A45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="A46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="A47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" ht="24.95" customHeight="1" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="53" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2611,122 +2865,122 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2736,4 +2990,492 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="48.5111111111111" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="48.5111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A34:D34"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27480" windowHeight="13305" tabRatio="993" activeTab="4"/>
+    <workbookView windowWidth="16095" windowHeight="25800" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
   <si>
     <t>admin</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>结束时间</t>
+  </si>
+  <si>
+    <t>活动列表模板</t>
+  </si>
+  <si>
+    <t>活动内容模板</t>
   </si>
 </sst>
 </file>
@@ -616,12 +622,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -631,6 +637,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -647,27 +654,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFEEECE1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -678,14 +668,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -700,14 +734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,7 +742,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -723,6 +765,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,19 +808,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,79 +821,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -848,7 +838,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,13 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,25 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +958,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,91 +1012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,6 +1086,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1107,33 +1132,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,17 +1151,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,11 +1177,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,296 +1188,278 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -1566,7 +1538,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1826,31 +1798,31 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="48.5111111111111" style="30"/>
-    <col min="5" max="1025" width="48.5111111111111" style="31"/>
+    <col min="1" max="4" width="48.5111111111111" style="1"/>
+    <col min="5" max="1025" width="48.5111111111111" style="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1864,7 +1836,7 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1947,10 +1919,10 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="6"/>
-    <col min="5" max="1025" width="48.5111111111111" style="29"/>
+    <col min="5" max="1025" width="48.5111111111111" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -2134,14 +2106,14 @@
   <sheetPr/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C40" sqref="A39:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="6"/>
-    <col min="5" max="1025" width="48.5111111111111" style="23"/>
+    <col min="5" max="1025" width="48.5111111111111" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:9">
@@ -2309,7 +2281,7 @@
       <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="21"/>
       <c r="I11"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:9">
@@ -2325,7 +2297,7 @@
       <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
       <c r="A13" s="6" t="s">
@@ -2497,7 +2469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" ht="49.5" spans="1:4">
+    <row r="26" ht="51.75" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
@@ -2507,7 +2479,7 @@
       <c r="C26" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2617,31 +2589,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" ht="47.25" spans="1:4">
-      <c r="A35" s="11" t="s">
+    <row r="35" ht="49.5" spans="1:4">
+      <c r="A35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2649,7 +2621,7 @@
       <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2660,10 +2632,10 @@
       </c>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2674,10 +2646,10 @@
       </c>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2688,10 +2660,10 @@
       </c>
     </row>
     <row r="40" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -2730,36 +2702,36 @@
       </c>
     </row>
     <row r="43" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" ht="24.95" customHeight="1" spans="1:4">
       <c r="A48" s="2" t="s">
@@ -2787,7 +2759,7 @@
       <c r="A50" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2815,7 +2787,7 @@
       <c r="A52" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2859,7 +2831,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1025" width="48.5111111111111"/>
   </cols>
@@ -2873,7 +2845,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2995,10 +2967,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.5111111111111" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
@@ -3320,72 +3292,72 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>178</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="7" t="s">
@@ -3416,58 +3388,76 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="10" t="s">
         <v>188</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="10" t="s">
         <v>190</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="18"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="25800" tabRatio="993" activeTab="4"/>
+    <workbookView windowWidth="15165" windowHeight="26250" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -1915,8 +1915,8 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
@@ -2107,7 +2107,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C40" sqref="A39:C40"/>
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -2969,8 +2969,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.5111111111111" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="15165" windowHeight="26250" tabRatio="993" activeTab="1"/>
+    <workbookView windowWidth="19095" windowHeight="7845" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
   <si>
     <t>admin</t>
   </si>
@@ -413,16 +413,84 @@
     <t>新闻标题</t>
   </si>
   <si>
-    <t>Images 新闻配置表</t>
-  </si>
-  <si>
-    <t>newId</t>
+    <t>images 新闻配置表</t>
+  </si>
+  <si>
+    <t>IDNo</t>
+  </si>
+  <si>
+    <t>编号属类</t>
   </si>
   <si>
     <t>images</t>
   </si>
   <si>
     <t>图片</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、新闻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、活动，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、商品</t>
+    </r>
   </si>
   <si>
     <t>activity_content 活动内容表</t>
@@ -622,12 +690,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -654,10 +722,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FFEEECE1"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF000000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -667,8 +733,141 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFEEECE1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,133 +890,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,13 +917,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +965,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,43 +1013,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,13 +1049,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,79 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,11 +1161,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,16 +1217,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,33 +1248,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,278 +1261,284 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -1538,7 +1617,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1798,31 +1877,31 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="1"/>
-    <col min="5" max="1025" width="48.5111111111111" style="25"/>
+    <col min="5" max="1025" width="48.5111111111111" style="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1915,14 +1994,14 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="6"/>
-    <col min="5" max="1025" width="48.5111111111111" style="24"/>
+    <col min="5" max="1025" width="48.5111111111111" style="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -2106,11 +2185,11 @@
   <sheetPr/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="6"/>
     <col min="5" max="1025" width="48.5111111111111" style="20"/>
@@ -2152,7 +2231,7 @@
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F3"/>
@@ -2281,7 +2360,7 @@
       <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="24"/>
       <c r="I11"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:9">
@@ -2297,7 +2376,7 @@
       <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
       <c r="A13" s="6" t="s">
@@ -2469,7 +2548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" ht="51.75" spans="1:4">
+    <row r="26" ht="49.5" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
@@ -2479,7 +2558,7 @@
       <c r="C26" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="21" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2589,7 +2668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" ht="49.5" spans="1:4">
+    <row r="35" ht="47.25" spans="1:4">
       <c r="A35" s="10" t="s">
         <v>5</v>
       </c>
@@ -2632,7 +2711,7 @@
       </c>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2646,7 +2725,7 @@
       </c>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -2660,7 +2739,7 @@
       </c>
     </row>
     <row r="40" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -2827,17 +2906,17 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1025" width="48.5111111111111"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B1" s="2"/>
@@ -2845,7 +2924,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2859,43 +2938,45 @@
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>51</v>
+      <c r="A3" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>131</v>
+      <c r="A5" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2907,9 +2988,15 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:4">
@@ -2969,8 +3056,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.5111111111111" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
@@ -2980,7 +3067,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3014,241 +3101,241 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -3260,7 +3347,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3282,7 +3369,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>6</v>
@@ -3293,49 +3380,49 @@
     </row>
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
       <c r="A30" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D30" s="14"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D31" s="15"/>
     </row>
@@ -3353,7 +3440,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:4">
       <c r="A34" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3384,30 +3471,30 @@
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D37" s="15"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -3419,43 +3506,43 @@
         <v>6</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D39" s="15"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D40" s="15"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>195</v>
+      <c r="C41" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="D41" s="15"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>196</v>
+      <c r="C42" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="D42" s="15"/>
     </row>

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7845" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="27480" windowHeight="13305" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
   <si>
     <t>admin</t>
   </si>
@@ -679,7 +679,37 @@
     <t>结束时间</t>
   </si>
   <si>
+    <r>
+      <t>template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <t>活动列表模板</t>
+  </si>
+  <si>
+    <r>
+      <t>templateContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>活动内容模板</t>
@@ -695,7 +725,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -719,6 +749,11 @@
       <sz val="12"/>
       <color rgb="FFEEECE1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1264,142 +1299,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -1455,9 +1490,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
@@ -1472,7 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -1484,7 +1522,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1880,28 +1918,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="1"/>
-    <col min="5" max="1025" width="48.5111111111111" style="26"/>
+    <col min="5" max="1025" width="48.5111111111111" style="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2001,7 +2039,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="6"/>
-    <col min="5" max="1025" width="48.5111111111111" style="25"/>
+    <col min="5" max="1025" width="48.5111111111111" style="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -2192,7 +2230,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="6"/>
-    <col min="5" max="1025" width="48.5111111111111" style="20"/>
+    <col min="5" max="1025" width="48.5111111111111" style="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:9">
@@ -2231,7 +2269,7 @@
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F3"/>
@@ -2360,7 +2398,7 @@
       <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="I11"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:9">
@@ -2376,7 +2414,7 @@
       <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
       <c r="A13" s="6" t="s">
@@ -2558,7 +2596,7 @@
       <c r="C26" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2678,7 +2716,7 @@
       <c r="C35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="23" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2692,7 +2730,7 @@
       <c r="C36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2711,7 +2749,7 @@
       </c>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="22" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2725,7 +2763,7 @@
       </c>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -2739,7 +2777,7 @@
       </c>
     </row>
     <row r="40" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -2866,7 +2904,7 @@
       <c r="A52" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2906,7 +2944,7 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2916,7 +2954,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B1" s="2"/>
@@ -2938,7 +2976,7 @@
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2952,7 +2990,7 @@
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2964,7 +3002,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2976,7 +3014,7 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2988,7 +3026,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3056,8 +3094,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.5111111111111" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
@@ -3523,26 +3561,26 @@
       <c r="D40" s="15"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="10" t="s">
-        <v>117</v>
+      <c r="A41" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D41" s="15"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="10" t="s">
-        <v>119</v>
+      <c r="A42" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D42" s="15"/>
     </row>

--- a/qcms/数据字典.xlsx
+++ b/qcms/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27480" windowHeight="13305" tabRatio="993" activeTab="4"/>
+    <workbookView windowWidth="15165" windowHeight="26250" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="news" sheetId="3" r:id="rId3"/>
     <sheet name="img" sheetId="4" r:id="rId4"/>
     <sheet name="activity" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -123,7 +124,25 @@
     <t>内容</t>
   </si>
   <si>
-    <t>ntmp</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>VARCHAR(150)</t>
@@ -132,7 +151,25 @@
     <t>分类模板</t>
   </si>
   <si>
-    <t>ctemp</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>templateContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>内容模板</t>
@@ -429,6 +466,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -444,6 +487,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -461,6 +505,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -478,6 +523,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -496,6 +542,15 @@
     <t>activity_content 活动内容表</t>
   </si>
   <si>
+    <t>activityId</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>活动栏目表编号</t>
+  </si>
+  <si>
     <t>p1</t>
   </si>
   <si>
@@ -622,9 +677,6 @@
     <t>activity_config 活动配置表</t>
   </si>
   <si>
-    <t>activityId</t>
-  </si>
-  <si>
     <t>activityValue</t>
   </si>
   <si>
@@ -652,7 +704,7 @@
     <t>活动状态</t>
   </si>
   <si>
-    <t>activity 活动配置表</t>
+    <t>activity_classify 活动栏目表</t>
   </si>
   <si>
     <t>pk</t>
@@ -679,37 +731,7 @@
     <t>结束时间</t>
   </si>
   <si>
-    <r>
-      <t>template</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>活动列表模板</t>
-  </si>
-  <si>
-    <r>
-      <t>templateContent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>活动内容模板</t>
@@ -720,12 +742,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -754,16 +776,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -775,15 +787,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,27 +822,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -831,6 +852,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -839,9 +904,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,31 +922,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -892,43 +943,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -946,7 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,13 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,25 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,13 +1000,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,49 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,25 +1084,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +1132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,24 +1212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1223,15 +1223,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,17 +1242,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,6 +1268,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1291,292 +1285,307 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -1655,7 +1664,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1915,31 +1924,31 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="1"/>
-    <col min="5" max="1025" width="48.5111111111111" style="27"/>
+    <col min="5" max="1025" width="48.5111111111111" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2033,13 +2042,13 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="6"/>
-    <col min="5" max="1025" width="48.5111111111111" style="26"/>
+    <col min="5" max="1025" width="48.5111111111111" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -2131,7 +2140,7 @@
       <c r="D7" s="9"/>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2143,7 +2152,7 @@
       <c r="D8" s="9"/>
     </row>
     <row r="9" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2223,14 +2232,14 @@
   <sheetPr/>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="4" width="48.5111111111111" style="6"/>
-    <col min="5" max="1025" width="48.5111111111111" style="21"/>
+    <col min="5" max="1025" width="48.5111111111111" style="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:9">
@@ -2269,7 +2278,7 @@
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3"/>
@@ -2398,7 +2407,7 @@
       <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="20"/>
       <c r="I11"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:9">
@@ -2414,7 +2423,7 @@
       <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
       <c r="A13" s="6" t="s">
@@ -2586,7 +2595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" ht="49.5" spans="1:4">
+    <row r="26" ht="51.75" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
@@ -2596,7 +2605,7 @@
       <c r="C26" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2706,7 +2715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" ht="47.25" spans="1:4">
+    <row r="35" ht="49.5" spans="1:4">
       <c r="A35" s="10" t="s">
         <v>5</v>
       </c>
@@ -2716,7 +2725,7 @@
       <c r="C35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2730,7 +2739,7 @@
       <c r="C36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2749,7 +2758,7 @@
       </c>
     </row>
     <row r="38" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2763,7 +2772,7 @@
       </c>
     </row>
     <row r="39" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -2777,7 +2786,7 @@
       </c>
     </row>
     <row r="40" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -2904,7 +2913,7 @@
       <c r="A52" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2948,13 +2957,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1025" width="48.5111111111111"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B1" s="2"/>
@@ -2976,7 +2985,7 @@
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2990,7 +2999,7 @@
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3002,7 +3011,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3014,7 +3023,7 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3026,7 +3035,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -3092,10 +3101,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.5111111111111" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
@@ -3141,10 +3150,10 @@
       <c r="A4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="6"/>
@@ -3154,320 +3163,326 @@
         <v>139</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" customFormat="1" customHeight="1" spans="1:4">
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
+    <row r="18" customFormat="1" customHeight="1" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="D32" s="15"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -3477,82 +3492,76 @@
       <c r="D33" s="15"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="4" t="s">
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="15"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>186</v>
+      <c r="B38" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" customFormat="1" customHeight="1" spans="1:4">
+    <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -3561,11 +3570,11 @@
       <c r="D40" s="15"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="10" t="s">
         <v>197</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>198</v>
@@ -3574,23 +3583,51 @@
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="18" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>